--- a/biology/Zoologie/Euptychia_marceli/Euptychia_marceli.xlsx
+++ b/biology/Zoologie/Euptychia_marceli/Euptychia_marceli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia marceli est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia marceli a été décrit par Brévignon en 2005[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia marceli a été décrit par Brévignon en 2005.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptychia marceli est un papillon à l'angle anal de l'aile postérieure angulaire et au dessus marron chez le mâle, marron clair chez la femelle.
 Le revers est marron rayé de fines lignes rouge discale et postdiscale avec une ligne submarginale d'ocelles dont seuls un à l'apex de l'aile antérieure et à l'aile postérieure les deux proches de l'angle anal et les deux proches de l'apex sont noirs et pupillés.
@@ -574,11 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia marceli vole toute l'année[1].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia marceli vole toute l'année.
 </t>
         </is>
       </c>
@@ -604,16 +620,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_marceli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_marceli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia marceli n'est présent qu'en Guyane[1].
-Biotope
-Il réside en forêt et vole au sommet des collines le matin[1].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia marceli n'est présent qu'en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_marceli</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_marceli</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt et vole au sommet des collines le matin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euptychia_marceli</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_marceli</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia marceli, sur Wikimedia CommonsEuptychia marceli, sur Wikispecies
 </t>
